--- a/Desarrollo de la Arquitectura/Test Cases.xlsx
+++ b/Desarrollo de la Arquitectura/Test Cases.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cindy Yasmin\Dropbox\SAMOC SYSTEM\Presentación T2\Arquitectura y Requerimientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cindy Yasmin\Desktop\Samoc-Repositorio\Desarrollo de la Arquitectura\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="879" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="879" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Gestionar Socios" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,10 @@
     <sheet name="Gestionar Auditorios" sheetId="7" r:id="rId6"/>
     <sheet name="Registrar Asistencia" sheetId="8" r:id="rId7"/>
     <sheet name="Gestionar Oficinas" sheetId="6" r:id="rId8"/>
-    <sheet name="Gestionar Aporte" sheetId="9" r:id="rId9"/>
+    <sheet name="Asignar Roles" sheetId="11" r:id="rId9"/>
+    <sheet name="Generar Hoja de Trabajo" sheetId="10" r:id="rId10"/>
+    <sheet name="Gestionar Aporte" sheetId="9" r:id="rId11"/>
+    <sheet name="Gestionar Cliente" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="251">
   <si>
     <t>&lt; Sistema Gestor SAMOC &gt; Test Cases: Módulo: Administrar Socios</t>
   </si>
@@ -638,6 +641,153 @@
   </si>
   <si>
     <t>El caso de uso permite modificar un aporte</t>
+  </si>
+  <si>
+    <t>El Secretario Ordinario modifica los datos de los campos mostrados</t>
+  </si>
+  <si>
+    <t>Nombre de aporte, fecha de aporte y monto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Secretario Ordinario guarda los datos modificados </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El caso de uso muestra los criterios de búsqueda </t>
+  </si>
+  <si>
+    <t>El Secretario Ordinario ingresa la información en el campo buscado</t>
+  </si>
+  <si>
+    <t>El caso de uso muestra los campos con los datos del aporte que se ha sido buscado.</t>
+  </si>
+  <si>
+    <t>El Secretario Ordinario desea inhabilitar un aporte</t>
+  </si>
+  <si>
+    <t>El caso de uso muestra el aporte con sus campos correspondientes  a ser inhabilitado</t>
+  </si>
+  <si>
+    <t>El caso de uso inhabilita un aporte</t>
+  </si>
+  <si>
+    <t>CU_01 GENERAR HOJA DE TRABAJO</t>
+  </si>
+  <si>
+    <t>CU_01 Generar Hoja de trabajo</t>
+  </si>
+  <si>
+    <t>CP_01 Generar Hoja de trabajo</t>
+  </si>
+  <si>
+    <t>El caso de uso al Secretario Ordinario generar la hoja de trabajo</t>
+  </si>
+  <si>
+    <t>El secretario ordinario está logueado en el sistema</t>
+  </si>
+  <si>
+    <t>Lista de socios</t>
+  </si>
+  <si>
+    <t>Generar la hoja de trabajo</t>
+  </si>
+  <si>
+    <t>CU_01 ASIGNAR ROLES</t>
+  </si>
+  <si>
+    <t>CU_01 Alsignar Roles</t>
+  </si>
+  <si>
+    <t>CP_01 Asignar Roles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El caso de uso permite al administrador asignar privilegios a usuarios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El caso de uso muestra la opción de asignar privilegios a los usuarios </t>
+  </si>
+  <si>
+    <t>El Administrador selecciona los privilegios que crea necesario</t>
+  </si>
+  <si>
+    <t>El caso de uso guarda la información con los privilegios necesarios a cada usuario.</t>
+  </si>
+  <si>
+    <t>El usuario tiene privilegios establecidos</t>
+  </si>
+  <si>
+    <t>Información de cada usuario</t>
+  </si>
+  <si>
+    <t>CU_01 REGISTRAR CLIENTE</t>
+  </si>
+  <si>
+    <t>CU_01 MODIFICAR CLIENTE</t>
+  </si>
+  <si>
+    <t>CU_01 BUSCAR CLIENTE</t>
+  </si>
+  <si>
+    <t>CU_01 INHABILITAR CLIENTE</t>
+  </si>
+  <si>
+    <t>CU_01 Registrar Cliente</t>
+  </si>
+  <si>
+    <t>CP_01 Registrar Cliente</t>
+  </si>
+  <si>
+    <t>El caso de uso permite registrar un nuevo cliente</t>
+  </si>
+  <si>
+    <t>Nombres, apellidos, DNI/RUC, fecha de nacimiento, dirección, teléfono, celular</t>
+  </si>
+  <si>
+    <t>El Secretario Ordinario ingresa los datos correspondientes</t>
+  </si>
+  <si>
+    <t>CU_01 Modificar Cliente</t>
+  </si>
+  <si>
+    <t>CP_01 Modificar Cliente</t>
+  </si>
+  <si>
+    <t>El caso de uso permite modificar un cliente</t>
+  </si>
+  <si>
+    <t>CU_01 Buscar Cliente</t>
+  </si>
+  <si>
+    <t>CP_01 Buscar Cliente</t>
+  </si>
+  <si>
+    <t>El caso de uso permite buscar un cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Secretario Ordinario llena el campo DNI del cliente a ser buscado </t>
+  </si>
+  <si>
+    <t>El caso de uso muestra los campos con los datos del cliente que se ha sido buscado.</t>
+  </si>
+  <si>
+    <t>El sistema guarda y valida la información</t>
+  </si>
+  <si>
+    <t>CU_01 Inhabilitar Cliente</t>
+  </si>
+  <si>
+    <t>CP_01 Inhabilitar Cliente</t>
+  </si>
+  <si>
+    <t>El caso de uso permite inhabilitar un cliente</t>
+  </si>
+  <si>
+    <t>El caso de uso muestra el campo DNI a ser llenado para inhabilitar al cliente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Secretario Ordinario llena el campo DNI del cliente al que desea inhabilitar </t>
+  </si>
+  <si>
+    <t>El caso de uso muestra los campos de los datos del cliente que se ha solicitado para ser inhabilitado</t>
   </si>
 </sst>
 </file>
@@ -883,7 +1033,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -939,6 +1089,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1788,12 +1939,1247 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" ht="23.25">
+      <c r="A3" s="37"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="24"/>
+      <c r="B9" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="23.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="24"/>
+      <c r="B8" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="35"/>
+      <c r="B9" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="14" spans="1:8" ht="23.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="24"/>
+      <c r="B20" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="25" spans="1:8" ht="23.25">
+      <c r="A25" s="37"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="24"/>
+      <c r="B31" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="24"/>
+      <c r="B32" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="12"/>
+    </row>
+    <row r="37" spans="1:8" ht="23.25">
+      <c r="A37" s="37"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="18"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="12"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="12"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="23"/>
+      <c r="B43" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="23"/>
+      <c r="B44" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="20"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:H49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" ht="23.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="24"/>
+      <c r="B9" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="35"/>
+      <c r="B10" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="15" spans="1:8" ht="23.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="24"/>
+      <c r="B21" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="24"/>
+      <c r="B22" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="27" spans="1:8" ht="23.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="24"/>
+      <c r="B33" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="24"/>
+      <c r="B34" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="24"/>
+      <c r="B35" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="12"/>
+    </row>
+    <row r="40" spans="1:8" ht="23.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="18"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="12"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="23"/>
+      <c r="B46" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="23"/>
+      <c r="B47" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="20"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1807,7 +3193,7 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="23.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="16"/>
       <c r="C3" s="19" t="s">
         <v>22</v>
@@ -1819,7 +3205,7 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1833,7 +3219,7 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1847,7 +3233,7 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -1861,7 +3247,7 @@
       <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -1875,7 +3261,7 @@
       <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -1889,7 +3275,7 @@
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="5"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>27</v>
       </c>
@@ -1901,7 +3287,7 @@
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="26"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="25" t="s">
         <v>28</v>
       </c>
@@ -1913,7 +3299,7 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="26"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="25" t="s">
         <v>29</v>
       </c>
@@ -1925,7 +3311,7 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -1939,7 +3325,7 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -1953,7 +3339,7 @@
       <c r="H13" s="12"/>
     </row>
     <row r="16" spans="1:8" ht="23.25">
-      <c r="A16" s="15"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="16"/>
       <c r="C16" s="19" t="s">
         <v>49</v>
@@ -1965,7 +3351,7 @@
       <c r="H16" s="18"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1979,7 +3365,7 @@
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1993,7 +3379,7 @@
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -2007,7 +3393,7 @@
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="11" t="s">
@@ -2021,7 +3407,7 @@
       <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -2035,7 +3421,7 @@
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="5"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="32" t="s">
         <v>62</v>
       </c>
@@ -2047,7 +3433,7 @@
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="5"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="25" t="s">
         <v>64</v>
       </c>
@@ -2059,7 +3445,7 @@
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="13"/>
@@ -2071,7 +3457,7 @@
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="32" t="s">
@@ -2085,7 +3471,7 @@
       <c r="H25" s="12"/>
     </row>
     <row r="28" spans="1:8" ht="23.25">
-      <c r="A28" s="15"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="16"/>
       <c r="C28" s="19" t="s">
         <v>50</v>
@@ -2097,7 +3483,7 @@
       <c r="H28" s="18"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -2111,7 +3497,7 @@
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -2125,7 +3511,7 @@
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="11" t="s">
@@ -2139,7 +3525,7 @@
       <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="11" t="s">
@@ -2153,7 +3539,7 @@
       <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="32" t="s">
@@ -2167,7 +3553,7 @@
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="5"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="32" t="s">
         <v>66</v>
       </c>
@@ -2179,7 +3565,7 @@
       <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="5"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="32" t="s">
         <v>67</v>
       </c>
@@ -2191,7 +3577,7 @@
       <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="21"/>
@@ -2203,7 +3589,7 @@
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -2217,7 +3603,7 @@
       <c r="H37" s="12"/>
     </row>
     <row r="40" spans="1:8" ht="23.25">
-      <c r="A40" s="15"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="16"/>
       <c r="C40" s="19" t="s">
         <v>51</v>
@@ -2229,7 +3615,7 @@
       <c r="H40" s="18"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -2243,7 +3629,7 @@
       <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -2257,7 +3643,7 @@
       <c r="H42" s="4"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="13" t="s">
@@ -2271,7 +3657,7 @@
       <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B44" s="11" t="s">
@@ -2285,7 +3671,7 @@
       <c r="H44" s="12"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B45" s="32" t="s">
@@ -2299,7 +3685,7 @@
       <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="10"/>
+      <c r="A46" s="23"/>
       <c r="B46" s="32" t="s">
         <v>69</v>
       </c>
@@ -2311,7 +3697,7 @@
       <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="10"/>
+      <c r="A47" s="23"/>
       <c r="B47" s="32" t="s">
         <v>91</v>
       </c>
@@ -2323,7 +3709,7 @@
       <c r="H47" s="7"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B48" s="20"/>
@@ -2335,7 +3721,7 @@
       <c r="H48" s="4"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -2358,7 +3744,7 @@
   <dimension ref="A2:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2368,7 +3754,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="23.25">
-      <c r="A2" s="15"/>
+      <c r="A2" s="37"/>
       <c r="B2" s="16"/>
       <c r="C2" s="19" t="s">
         <v>92</v>
@@ -2557,8 +3943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2568,7 +3954,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="23.25">
-      <c r="A2" s="15"/>
+      <c r="A2" s="37"/>
       <c r="B2" s="16"/>
       <c r="C2" s="19" t="s">
         <v>70</v>
@@ -2580,7 +3966,7 @@
       <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2594,7 +3980,7 @@
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2608,7 +3994,7 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -2622,7 +4008,7 @@
       <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -2636,7 +4022,7 @@
       <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -2650,7 +4036,7 @@
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="5"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="31" t="s">
         <v>77</v>
       </c>
@@ -2662,7 +4048,7 @@
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="26"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="31" t="s">
         <v>88</v>
       </c>
@@ -2674,7 +4060,7 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="26"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="25" t="s">
         <v>79</v>
       </c>
@@ -2686,7 +4072,7 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="13"/>
@@ -2698,7 +4084,7 @@
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -2712,7 +4098,7 @@
       <c r="H12" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="23.25">
-      <c r="A15" s="15"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="16"/>
       <c r="C15" s="19" t="s">
         <v>71</v>
@@ -2724,7 +4110,7 @@
       <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -2738,7 +4124,7 @@
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2752,7 +4138,7 @@
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -2766,7 +4152,7 @@
       <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -2780,7 +4166,7 @@
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="32" t="s">
@@ -2794,7 +4180,7 @@
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="5"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="32" t="s">
         <v>83</v>
       </c>
@@ -2806,7 +4192,7 @@
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="5"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="31" t="s">
         <v>82</v>
       </c>
@@ -2818,7 +4204,7 @@
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="13"/>
@@ -2830,7 +4216,7 @@
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="32" t="s">
@@ -2844,7 +4230,7 @@
       <c r="H24" s="12"/>
     </row>
     <row r="27" spans="1:8" ht="23.25">
-      <c r="A27" s="15"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="16"/>
       <c r="C27" s="19" t="s">
         <v>72</v>
@@ -2856,7 +4242,7 @@
       <c r="H27" s="18"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -2870,7 +4256,7 @@
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -2884,7 +4270,7 @@
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -2898,7 +4284,7 @@
       <c r="H30" s="12"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="11" t="s">
@@ -2912,7 +4298,7 @@
       <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="32" t="s">
@@ -2926,7 +4312,7 @@
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="5"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="32" t="s">
         <v>85</v>
       </c>
@@ -2938,7 +4324,7 @@
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="5"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="31" t="s">
         <v>89</v>
       </c>
@@ -2950,7 +4336,7 @@
       <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="21"/>
@@ -2962,7 +4348,7 @@
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="11" t="s">
@@ -2976,7 +4362,7 @@
       <c r="H36" s="12"/>
     </row>
     <row r="39" spans="1:8" ht="23.25">
-      <c r="A39" s="15"/>
+      <c r="A39" s="37"/>
       <c r="B39" s="16"/>
       <c r="C39" s="19" t="s">
         <v>73</v>
@@ -2988,7 +4374,7 @@
       <c r="H39" s="18"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -3002,7 +4388,7 @@
       <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -3016,7 +4402,7 @@
       <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="13" t="s">
@@ -3030,7 +4416,7 @@
       <c r="H42" s="12"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="11" t="s">
@@ -3044,7 +4430,7 @@
       <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B44" s="32" t="s">
@@ -3058,7 +4444,7 @@
       <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="10"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="32" t="s">
         <v>90</v>
       </c>
@@ -3070,7 +4456,7 @@
       <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="10"/>
+      <c r="A46" s="23"/>
       <c r="B46" s="32" t="s">
         <v>91</v>
       </c>
@@ -3082,7 +4468,7 @@
       <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B47" s="20"/>
@@ -3094,7 +4480,7 @@
       <c r="H47" s="4"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B48" s="11" t="s">
@@ -3116,8 +4502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3259,7 +4645,7 @@
       <c r="H11" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="23.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="16"/>
       <c r="C14" s="19" t="s">
         <v>105</v>
@@ -3271,7 +4657,7 @@
       <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -3285,7 +4671,7 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -3299,7 +4685,7 @@
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -3313,7 +4699,7 @@
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -3327,7 +4713,7 @@
       <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="32" t="s">
@@ -3341,7 +4727,7 @@
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="5"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="32" t="s">
         <v>83</v>
       </c>
@@ -3353,7 +4739,7 @@
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="5"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="36" t="s">
         <v>114</v>
       </c>
@@ -3365,7 +4751,7 @@
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="13"/>
@@ -3377,7 +4763,7 @@
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="32" t="s">
@@ -3391,7 +4777,7 @@
       <c r="H23" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="23.25">
-      <c r="A26" s="15"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="16"/>
       <c r="C26" s="19" t="s">
         <v>106</v>
@@ -3403,7 +4789,7 @@
       <c r="H26" s="18"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3417,7 +4803,7 @@
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -3431,7 +4817,7 @@
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="11" t="s">
@@ -3445,7 +4831,7 @@
       <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -3459,7 +4845,7 @@
       <c r="H30" s="12"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="32" t="s">
@@ -3473,7 +4859,7 @@
       <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="5"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="32" t="s">
         <v>124</v>
       </c>
@@ -3485,7 +4871,7 @@
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="5"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="31" t="s">
         <v>125</v>
       </c>
@@ -3497,7 +4883,7 @@
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="21"/>
@@ -3509,7 +4895,7 @@
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B35" s="11" t="s">
@@ -3523,7 +4909,7 @@
       <c r="H35" s="12"/>
     </row>
     <row r="38" spans="1:8" ht="23.25">
-      <c r="A38" s="15"/>
+      <c r="A38" s="37"/>
       <c r="B38" s="16"/>
       <c r="C38" s="19" t="s">
         <v>107</v>
@@ -3535,7 +4921,7 @@
       <c r="H38" s="18"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -3549,7 +4935,7 @@
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -3563,7 +4949,7 @@
       <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="13" t="s">
@@ -3577,7 +4963,7 @@
       <c r="H41" s="12"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B42" s="11" t="s">
@@ -3591,7 +4977,7 @@
       <c r="H42" s="12"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B43" s="32" t="s">
@@ -3605,7 +4991,7 @@
       <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="10"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="32" t="s">
         <v>130</v>
       </c>
@@ -3617,7 +5003,7 @@
       <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="10"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="32" t="s">
         <v>129</v>
       </c>
@@ -3629,7 +5015,7 @@
       <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B46" s="20"/>
@@ -3641,7 +5027,7 @@
       <c r="H46" s="4"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B47" s="11" t="s">
@@ -3663,8 +5049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H11"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3674,7 +5060,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="23.25">
-      <c r="A2" s="15"/>
+      <c r="A2" s="37"/>
       <c r="B2" s="16"/>
       <c r="C2" s="19" t="s">
         <v>161</v>
@@ -3686,7 +5072,7 @@
       <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3700,7 +5086,7 @@
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3714,7 +5100,7 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -3728,7 +5114,7 @@
       <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -3742,7 +5128,7 @@
       <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -3756,7 +5142,7 @@
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="5"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="31" t="s">
         <v>166</v>
       </c>
@@ -3768,7 +5154,7 @@
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="26"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="31" t="s">
         <v>167</v>
       </c>
@@ -3780,7 +5166,7 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="13"/>
@@ -3792,7 +5178,7 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -3806,7 +5192,7 @@
       <c r="H11" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="23.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="16"/>
       <c r="C14" s="19" t="s">
         <v>162</v>
@@ -3818,7 +5204,7 @@
       <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -3832,7 +5218,7 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -3846,7 +5232,7 @@
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -3860,7 +5246,7 @@
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -3874,7 +5260,7 @@
       <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="32" t="s">
@@ -3888,7 +5274,7 @@
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="5"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="32" t="s">
         <v>147</v>
       </c>
@@ -3900,7 +5286,7 @@
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="5"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="36" t="s">
         <v>171</v>
       </c>
@@ -3912,7 +5298,7 @@
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="13"/>
@@ -3924,7 +5310,7 @@
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="11" t="s">
@@ -4199,7 +5585,7 @@
   <dimension ref="A2:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4208,7 +5594,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="23.25">
-      <c r="A2" s="15"/>
+      <c r="A2" s="37"/>
       <c r="B2" s="16"/>
       <c r="C2" s="19" t="s">
         <v>183</v>
@@ -4220,7 +5606,7 @@
       <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -4234,7 +5620,7 @@
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -4248,7 +5634,7 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -4262,7 +5648,7 @@
       <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -4276,7 +5662,7 @@
       <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -4290,7 +5676,7 @@
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="5"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="31" t="s">
         <v>187</v>
       </c>
@@ -4302,7 +5688,7 @@
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="5"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="13" t="s">
         <v>188</v>
       </c>
@@ -4314,7 +5700,7 @@
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="5"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="31" t="s">
         <v>189</v>
       </c>
@@ -4326,7 +5712,7 @@
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="13"/>
@@ -4338,7 +5724,7 @@
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -4361,13 +5747,13 @@
   <dimension ref="A2:H47"/>
   <sheetViews>
     <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:H47"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="8" max="8" width="30.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="23.25">
@@ -4767,7 +6153,7 @@
       <c r="H35" s="12"/>
     </row>
     <row r="38" spans="1:8" ht="23.25">
-      <c r="A38" s="15"/>
+      <c r="A38" s="37"/>
       <c r="B38" s="16"/>
       <c r="C38" s="19" t="s">
         <v>135</v>
@@ -4779,7 +6165,7 @@
       <c r="H38" s="18"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -4793,7 +6179,7 @@
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -4807,7 +6193,7 @@
       <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="13" t="s">
@@ -4821,7 +6207,7 @@
       <c r="H41" s="12"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B42" s="11" t="s">
@@ -4835,7 +6221,7 @@
       <c r="H42" s="12"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B43" s="32" t="s">
@@ -4849,7 +6235,7 @@
       <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="10"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="32" t="s">
         <v>157</v>
       </c>
@@ -4861,7 +6247,7 @@
       <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="10"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="32" t="s">
         <v>158</v>
       </c>
@@ -4873,7 +6259,7 @@
       <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B46" s="20"/>
@@ -4885,7 +6271,7 @@
       <c r="H46" s="4"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B47" s="11" t="s">
@@ -4905,50 +6291,35 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H47"/>
+  <dimension ref="A3:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:8" ht="23.25">
+      <c r="A3" s="37"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="B4" s="3" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -4958,25 +6329,25 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="10" t="s">
-        <v>3</v>
-      </c>
       <c r="B6" s="11" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -4986,23 +6357,25 @@
       <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="5"/>
-      <c r="B8" s="31" t="s">
-        <v>198</v>
+      <c r="B8" s="13" t="s">
+        <v>222</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -5012,410 +6385,59 @@
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="26"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
+        <v>223</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="10" t="s">
+      <c r="B11" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="14" spans="1:8" ht="23.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="18"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="5"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="5"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="26" spans="1:8" ht="23.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="18"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="5"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="5"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="12"/>
-    </row>
-    <row r="38" spans="1:8" ht="23.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="18"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="12"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="12"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="10"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="10"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="12"/>
+      <c r="B12" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>